--- a/temporary_folder/mechanical.xlsx
+++ b/temporary_folder/mechanical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,6 +731,92 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>🛠️ Техническое обслуживание</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>933028899</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-10 23:59:04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Теле Тонна</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Механика</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Forward 27.5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Мойка велосипеда', 'Замена оболочки троса (естественный износ)']</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[0.3, 0.3]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Шарипов Нафис</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-11-10 23:59:38</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>461</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>45868</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
